--- a/GameBattle/GameBattle/Asset/Data/stage_kakure.xlsx
+++ b/GameBattle/GameBattle/Asset/Data/stage_kakure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameBattle\GameBattle\GameBattle\Asset\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{982CCADE-A3A8-4F8E-AFBD-BB30AD1D47C1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{36302DA3-C8D8-4608-900A-80F576831C69}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8000" xr2:uid="{0DFA8E32-CCBF-4D8B-9107-3B337CEEC88E}"/>
   </bookViews>
@@ -386,7 +386,7 @@
   <dimension ref="A1:BH30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AE22" sqref="AE22"/>
+      <selection activeCell="BZ16" sqref="BZ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="AZ13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA13">
         <v>0</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -5197,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -5230,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="AJ27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK27">
         <v>0</v>
@@ -5278,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="AZ27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BA27">
         <v>0</v>

--- a/GameBattle/GameBattle/Asset/Data/stage_kakure.xlsx
+++ b/GameBattle/GameBattle/Asset/Data/stage_kakure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameBattle\GameBattle\GameBattle\Asset\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{36302DA3-C8D8-4608-900A-80F576831C69}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1F755C3C-8730-4940-9709-00A1CE37B990}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8000" xr2:uid="{0DFA8E32-CCBF-4D8B-9107-3B337CEEC88E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7995" xr2:uid="{0DFA8E32-CCBF-4D8B-9107-3B337CEEC88E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -386,12 +386,12 @@
   <dimension ref="A1:BH30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="BZ16" sqref="BZ16"/>
+      <selection activeCell="BN33" sqref="BN33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>0</v>
       </c>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>0</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>0</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>0</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>0</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>0</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>0</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>0</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>0</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>0</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>0</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>0</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>0</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>0</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>0</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>0</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>0</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>0</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>0</v>
       </c>
@@ -5669,186 +5669,186 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
